--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints5.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints5.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.31525042759588e-07</v>
+        <v>1.291595884952155e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.312680798185097e-07</v>
+        <v>1.324916345286081e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.323432633160912e-07</v>
+        <v>1.363233962782979e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.346523344787444e-07</v>
+        <v>1.406288234694318e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.380970345328847e-07</v>
+        <v>1.453818658271712e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.425791047049271e-07</v>
+        <v>1.505564730766731e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.48000286221294e-07</v>
+        <v>1.56126594943102e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54262320308386e-07</v>
+        <v>1.620661811516002e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.612669481926244e-07</v>
+        <v>1.683491814273314e-07</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.689159111004347e-07</v>
+        <v>1.749495454954617e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.771109502582114e-07</v>
+        <v>1.818412230811305e-07</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.85753806892379e-07</v>
+        <v>1.88998163909503e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.947462222293643e-07</v>
+        <v>1.963943177057462e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.039899374955587e-07</v>
+        <v>2.040036341949974e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.133866939173885e-07</v>
+        <v>2.118000631024231e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>2.228382327212685e-07</v>
+        <v>2.197575541531803e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>2.322462951336259e-07</v>
+        <v>2.278500570724364e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>2.415126223808509e-07</v>
+        <v>2.360515215853273e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>2.505416057551236e-07</v>
+        <v>2.443358656956287e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.592909286802285e-07</v>
+        <v>2.526763694982036e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>2.677676297825626e-07</v>
+        <v>2.610457223041627e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.759806089144361e-07</v>
+        <v>2.694165911457028e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.839387659281475e-07</v>
+        <v>2.777616430550093e-07</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>2.916510006760057e-07</v>
+        <v>2.860535450642789e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>2.991262130102887e-07</v>
+        <v>2.942649642056754e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>3.063733027833057e-07</v>
+        <v>3.023685675113956e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>3.134011698473643e-07</v>
+        <v>3.103370220136354e-07</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>3.202187140547446e-07</v>
+        <v>3.181429947445597e-07</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>3.268348352577547e-07</v>
+        <v>3.257591527363644e-07</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>3.332584333086933e-07</v>
+        <v>3.331581630212356e-07</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>3.394984080598669e-07</v>
+        <v>3.40312692631368e-07</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>3.455636593635578e-07</v>
+        <v>3.471954085989284e-07</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>3.514630870720728e-07</v>
+        <v>3.537789779561122e-07</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>3.572055910377184e-07</v>
+        <v>3.600360677351131e-07</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>3.62796001806051e-07</v>
+        <v>3.659408847089864e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>3.682119151130379e-07</v>
+        <v>3.714779407353649e-07</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>3.734197489433085e-07</v>
+        <v>3.766359771001101e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>3.783858872012704e-07</v>
+        <v>3.814037479843015e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>3.830767137913523e-07</v>
+        <v>3.85770007569039e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>3.874586126179756e-07</v>
+        <v>3.89723510035416e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>3.91497967585567e-07</v>
+        <v>3.932530095645296e-07</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>3.951611625985373e-07</v>
+        <v>3.963472603374637e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>3.984145815613134e-07</v>
+        <v>3.989950165353162e-07</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>4.012246083783204e-07</v>
+        <v>4.011850323391828e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>4.035576269539722e-07</v>
+        <v>4.029060619301509e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>4.053800211926946e-07</v>
+        <v>4.041468594893164e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>4.066581749989089e-07</v>
+        <v>4.048961791977727e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>4.073584722770369e-07</v>
+        <v>4.051427752366126e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>4.074472969314987e-07</v>
+        <v>4.048754017869286e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>4.068959821573935e-07</v>
+        <v>4.040863671816634e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>4.057394891423834e-07</v>
+        <v>4.028136718664646e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>4.040569206918911e-07</v>
+        <v>4.011270149732433e-07</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>4.019282675444906e-07</v>
+        <v>3.990967332705845e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>3.99433520438754e-07</v>
+        <v>3.967931635270713e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>3.966526701132632e-07</v>
+        <v>3.942866425112959e-07</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>3.936657073065906e-07</v>
+        <v>3.916475069918419e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>3.905526227573113e-07</v>
+        <v>3.889460937372952e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>3.873934072039968e-07</v>
+        <v>3.86252739516239e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>3.842680513852306e-07</v>
+        <v>3.836377810972663e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>3.812565460395842e-07</v>
+        <v>3.811715552489601e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>3.784388819056292e-07</v>
+        <v>3.789243987399036e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>3.758927525475972e-07</v>
+        <v>3.769644130246494e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>3.736393559306001e-07</v>
+        <v>3.753047253213245e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>3.71641282673713e-07</v>
+        <v>3.739014337316709e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>3.698584036939625e-07</v>
+        <v>3.727079898938884e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>3.682505899083816e-07</v>
+        <v>3.716778454461808e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>3.667777122339968e-07</v>
+        <v>3.707644520267473e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>3.653996415878349e-07</v>
+        <v>3.699212612737879e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>3.640762488869281e-07</v>
+        <v>3.691017248255055e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>3.627674050483033e-07</v>
+        <v>3.682592943201002e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>3.614329809889876e-07</v>
+        <v>3.673474213957713e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>3.600328476260129e-07</v>
+        <v>3.663195576907224e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>3.585268758764062e-07</v>
+        <v>3.651291548431531e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>3.568749366571963e-07</v>
+        <v>3.637296644912644e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>3.550369008854091e-07</v>
+        <v>3.620745382732546e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>3.529726394780783e-07</v>
+        <v>3.601172278273294e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>3.506420233522302e-07</v>
+        <v>3.578111847916874e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>3.480049234248899e-07</v>
+        <v>3.551098608045259e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>3.45021210613093e-07</v>
+        <v>3.519667075040529e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>3.416507558338647e-07</v>
+        <v>3.483351765284656e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>3.378534300042339e-07</v>
+        <v>3.441687195159655e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>3.335891040412234e-07</v>
+        <v>3.394207881047467e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>3.288176488618729e-07</v>
+        <v>3.340448339330224e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>3.234989353832059e-07</v>
+        <v>3.279943086389879e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>3.175928345222429e-07</v>
+        <v>3.212226638608345e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.11059217196028e-07</v>
+        <v>3.136833512367812e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.038579543215827e-07</v>
+        <v>3.053298224050203e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>2.959835612555775e-07</v>
+        <v>2.961634106609254e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>2.876106400973961e-07</v>
+        <v>2.864343449889083e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>2.789721247407911e-07</v>
+        <v>2.764734740343951e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>2.703009790066517e-07</v>
+        <v>2.666116878047497e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>2.618301667158666e-07</v>
+        <v>2.571798763073362e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.537926516893583e-07</v>
+        <v>2.48508929549556e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.464213977480153e-07</v>
+        <v>2.409297375387726e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.399493687127296e-07</v>
+        <v>2.34773190282355e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.346095284044183e-07</v>
+        <v>2.303701777876961e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.306348406439721e-07</v>
+        <v>2.28051590062163e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.282582692522906e-07</v>
+        <v>2.281483171131318e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.277127780502745e-07</v>
+        <v>2.309912489479843e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.292313308588253e-07</v>
+        <v>2.369112755740897e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.198326748319296e-07</v>
+        <v>1.205590240999707e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.554667882042432e-07</v>
+        <v>1.568812086245073e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.488610019629109e-07</v>
+        <v>1.524966234000771e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.053114150767147e-07</v>
+        <v>2.068380278178157e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>2.589716557591859e-07</v>
+        <v>2.57795603946292e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>2.651489468005091e-07</v>
+        <v>2.641082321779455e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>4.371952618207062e-07</v>
+        <v>4.388402289258218e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.160852416744926e-06</v>
+        <v>1.164960682042508e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.349348872384762e-06</v>
+        <v>2.355662837378323e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>2.933924541718811e-06</v>
+        <v>2.944904243496095e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.112774804993122e-06</v>
+        <v>3.119417463452055e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>3.136736440642903e-06</v>
+        <v>3.131295340593809e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.042021199869951e-06</v>
+        <v>3.034075523144516e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>2.898193135497018e-06</v>
+        <v>2.897227636870366e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.78915640498591e-06</v>
+        <v>2.794107772800421e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.724065465956132e-06</v>
+        <v>2.725856872283418e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>2.701535608764585e-06</v>
+        <v>2.693529340579893e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>2.760645206561479e-06</v>
+        <v>2.763118243033106e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.708647277499633e-06</v>
+        <v>2.715500695593916e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.648821134894172e-06</v>
+        <v>2.64523521767041e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.689144429916913e-06</v>
+        <v>2.682467729698071e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>2.684201059848399e-06</v>
+        <v>2.678956232470411e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>2.646817117426653e-06</v>
+        <v>2.644331053548324e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>2.609866712194105e-06</v>
+        <v>2.609371544233477e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.568902231977242e-06</v>
+        <v>2.569536326622566e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.515432903720302e-06</v>
+        <v>2.516457634744208e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.4411413913785e-06</v>
+        <v>2.441950033071949e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.339479979206511e-06</v>
+        <v>2.339688448263504e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.204935509603115e-06</v>
+        <v>2.204435414781046e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.032256282287846e-06</v>
+        <v>2.031215777561968e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.825847961208124e-06</v>
+        <v>1.824718975398905e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.602660893555875e-06</v>
+        <v>1.602188521440588e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.380483751035648e-06</v>
+        <v>1.381706880928914e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.174973706452523e-06</v>
+        <v>1.179016157471532e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>9.877309492560617e-07</v>
+        <v>9.944240462665942e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>8.146868338200372e-07</v>
+        <v>8.220188430076224e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>6.554258553602632e-07</v>
+        <v>6.606486623281675e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>5.171049521648552e-07</v>
+        <v>5.190212255635518e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>4.074793210654919e-07</v>
+        <v>4.066709028528982e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>3.276296184169758e-07</v>
+        <v>3.253849094704763e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.725151330772166e-07</v>
+        <v>2.698453750075554e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.36868598348053e-07</v>
+        <v>2.344714654874278e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.154227475313664e-07</v>
+        <v>2.136823469334277e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>2.029103139289879e-07</v>
+        <v>2.018971853688399e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.942681896276145e-07</v>
+        <v>1.937539687776159e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.872379319596086e-07</v>
+        <v>1.868967882045125e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.815989447312864e-07</v>
+        <v>1.811539442117216e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.771765056916959e-07</v>
+        <v>1.764029060812576e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.737958925898875e-07</v>
+        <v>1.725211430951366e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.712823831749158e-07</v>
+        <v>1.693861245353798e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.694612551958308e-07</v>
+        <v>1.668753196840033e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.68157786401684e-07</v>
+        <v>1.648661978230246e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.671972545415266e-07</v>
+        <v>1.63236228234461e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.664279285295216e-07</v>
+        <v>1.618783366654739e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.658119755225461e-07</v>
+        <v>1.607620201987703e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.653467687332146e-07</v>
+        <v>1.598804441900956e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.650296916809339e-07</v>
+        <v>1.592267809242306e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.648581278851102e-07</v>
+        <v>1.587942026859546e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.648294608651497e-07</v>
+        <v>1.585758817600475e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.649410741404589e-07</v>
+        <v>1.585649904312893e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.651903512304441e-07</v>
+        <v>1.587547009844597e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.655746756545116e-07</v>
+        <v>1.591381857043387e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.66091430932068e-07</v>
+        <v>1.597086168757064e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.667380005825193e-07</v>
+        <v>1.604591667833422e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.675117681252721e-07</v>
+        <v>1.613830077120263e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.684101170797325e-07</v>
+        <v>1.624733119465383e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.694304309653076e-07</v>
+        <v>1.637232517716588e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.705700933014027e-07</v>
+        <v>1.651259994721666e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.718264876074247e-07</v>
+        <v>1.666747273328422e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.731969974027804e-07</v>
+        <v>1.683626076384661e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.746790062068752e-07</v>
+        <v>1.701828126738167e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.762698975391158e-07</v>
+        <v>1.721285147236746e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.779670549189087e-07</v>
+        <v>1.741928860728197e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.79767861865661e-07</v>
+        <v>1.763690990060329e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>1.816697018987775e-07</v>
+        <v>1.78650325808092e-07</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.836699585376654e-07</v>
+        <v>1.81029738763778e-07</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.857660153017319e-07</v>
+        <v>1.835005101578719e-07</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.879552557103814e-07</v>
+        <v>1.860558122751512e-07</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.902350632830214e-07</v>
+        <v>1.886888174003969e-07</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.926028215390582e-07</v>
+        <v>1.91392697818389e-07</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.950559139978991e-07</v>
+        <v>1.941606258139085e-07</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.975917241789485e-07</v>
+        <v>1.969857736717329e-07</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.002076356016137e-07</v>
+        <v>1.998613136766433e-07</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.02901031785301e-07</v>
+        <v>2.027804181134195e-07</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.056692962494182e-07</v>
+        <v>2.057362592668427e-07</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.085098125133689e-07</v>
+        <v>2.087220094216902e-07</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.114199640965611e-07</v>
+        <v>2.117308408627432e-07</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.143971359252558e-07</v>
+        <v>2.147559277949556e-07</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.174437396660194e-07</v>
+        <v>2.177973052714572e-07</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.20578503960913e-07</v>
+        <v>2.208772788994031e-07</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.238234624419248e-07</v>
+        <v>2.240226651682959e-07</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.272006487410389e-07</v>
+        <v>2.272602805676342e-07</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.307320964902432e-07</v>
+        <v>2.306169415869205e-07</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.344398393215246e-07</v>
+        <v>2.34119464715656e-07</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.383459108668716e-07</v>
+        <v>2.377946664433437e-07</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.424723447582675e-07</v>
+        <v>2.416693632594814e-07</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.468411746277008e-07</v>
+        <v>2.457703716535722e-07</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.514744341071581e-07</v>
+        <v>2.501245081151172e-07</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.563941568286286e-07</v>
+        <v>2.547585891336197e-07</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.616223764240945e-07</v>
+        <v>2.596994311985769e-07</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.671811265255448e-07</v>
+        <v>2.649738507994919e-07</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.73092440764969e-07</v>
+        <v>2.706086644258688e-07</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.793783527743484e-07</v>
+        <v>2.766306885672035e-07</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>2.860608961856726e-07</v>
+        <v>2.830667397129999e-07</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.93162104630928e-07</v>
+        <v>2.899436343527591e-07</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>3.007040117421051e-07</v>
+        <v>2.972881889759857e-07</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>3.087086511511839e-07</v>
+        <v>3.051272200721746e-07</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>3.171980564901544e-07</v>
+        <v>3.1348754413083e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>3.261942613910074e-07</v>
+        <v>3.223959776414573e-07</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>3.357192994857216e-07</v>
+        <v>3.318793370935497e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>3.457952044062878e-07</v>
+        <v>3.419644389766124e-07</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>3.564440097846926e-07</v>
+        <v>3.526780997801465e-07</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>3.676877492529282e-07</v>
+        <v>3.640471359936587e-07</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>3.795484564429709e-07</v>
+        <v>3.760983641066399e-07</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>3.920676480328565e-07</v>
+        <v>3.888763819046567e-07</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>4.053909360634019e-07</v>
+        <v>4.025207903088212e-07</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>4.196985553459468e-07</v>
+        <v>4.172027888789629e-07</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>4.351707640082843e-07</v>
+        <v>4.33093598454787e-07</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>4.51987820178201e-07</v>
+        <v>4.503644398759924e-07</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>4.703299819834925e-07</v>
+        <v>4.691865339822872e-07</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>4.903775075519299e-07</v>
+        <v>4.897311016133538e-07</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>5.123106550113073e-07</v>
+        <v>5.121693636088989e-07</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>5.363096824894236e-07</v>
+        <v>5.366725408086338e-07</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>5.625548481140436e-07</v>
+        <v>5.634118540522347e-07</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>5.912264100129653e-07</v>
+        <v>5.925585241794122e-07</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>6.225046263139752e-07</v>
+        <v>6.242837720298649e-07</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>6.565697551448766e-07</v>
+        <v>6.587588184433082e-07</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>6.936020546334254e-07</v>
+        <v>6.9615488425941e-07</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>7.337817829074237e-07</v>
+        <v>7.366431903178845e-07</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>7.77289198094679e-07</v>
+        <v>7.803949574584515e-07</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>8.243045583229385e-07</v>
+        <v>8.275814065207703e-07</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>8.751286081862635e-07</v>
+        <v>8.784956221764813e-07</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>9.313419716856363e-07</v>
+        <v>9.347251997071981e-07</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>9.952970500203331e-07</v>
+        <v>9.986383343216254e-07</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.069356887064223e-06</v>
+        <v>1.072613985566972e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.155884526691259e-06</v>
+        <v>1.159031112990528e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.257243012775367e-06</v>
+        <v>1.26026867613956e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.37579538919053e-06</v>
+        <v>1.378705634561389e-06</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>1.513904699810567e-06</v>
+        <v>1.516720947803174e-06</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>1.673933988509453e-06</v>
+        <v>1.676693575412229e-06</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.858246299161205e-06</v>
+        <v>1.861002476935909e-06</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.069204675639582e-06</v>
+        <v>2.072026611921313e-06</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.309172161818586e-06</v>
+        <v>2.312144939915781e-06</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>2.580511801572274e-06</v>
+        <v>2.583736420466711e-06</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>2.885014039807807e-06</v>
+        <v>2.888605313323635e-06</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>3.217455190077894e-06</v>
+        <v>3.221516012458053e-06</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>3.567910483838505e-06</v>
+        <v>3.572514581758932e-06</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>3.926368508568814e-06</v>
+        <v>3.931560123246926e-06</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>4.282817851747498e-06</v>
+        <v>4.288611738942202e-06</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>4.627247100853724e-06</v>
+        <v>4.633628530865411e-06</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>4.949644843366501e-06</v>
+        <v>4.956569601037047e-06</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>5.239999666764956e-06</v>
+        <v>5.247394051477721e-06</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>5.488300158527832e-06</v>
+        <v>5.496060984207663e-06</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>5.684534906134272e-06</v>
+        <v>5.6925295012475e-06</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>5.81869249706333e-06</v>
+        <v>5.826758704617772e-06</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>5.880761518793887e-06</v>
+        <v>5.888707696338845e-06</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>5.860730558805026e-06</v>
+        <v>5.868335578431286e-06</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>5.749519972085228e-06</v>
+        <v>5.756537043651546e-06</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>5.551305959859532e-06</v>
+        <v>5.557517022352946e-06</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>5.280129171570675e-06</v>
+        <v>5.285385368889645e-06</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>4.950265123506591e-06</v>
+        <v>4.95448776816613e-06</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>4.575989331955098e-06</v>
+        <v>4.579169905086782e-06</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>4.171577313204543e-06</v>
+        <v>4.173777464556504e-06</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>3.751304583542763e-06</v>
+        <v>3.752656131479694e-06</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>3.329446659257758e-06</v>
+        <v>3.330151590760908e-06</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>2.920279056637347e-06</v>
+        <v>2.920609527304527e-06</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>2.538077291969905e-06</v>
+        <v>2.538375626015483e-06</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.197116881543242e-06</v>
+        <v>2.197795571798144e-06</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.911673341645245e-06</v>
+        <v>1.913215049556958e-06</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.696022188564174e-06</v>
+        <v>1.698979744196742e-06</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>1.564438938587888e-06</v>
+        <v>1.569435340621915e-06</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.526786834904578e-06</v>
+        <v>1.534442555209501e-06</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.531186751928659e-06</v>
+        <v>1.541102484861082e-06</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.480327467385589e-06</v>
+        <v>1.490335602754229e-06</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.276007429052352e-06</v>
+        <v>1.282158668946078e-06</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>9.07702090485707e-07</v>
+        <v>9.064000077217432e-07</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>5.95018010561856e-07</v>
+        <v>5.88613323625092e-07</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>4.653602963248185e-07</v>
+        <v>4.593239502046432e-07</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>4.339184828837147e-07</v>
+        <v>4.307257275232626e-07</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>4.087819772227308e-07</v>
+        <v>4.077885690402684e-07</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.694954328444319e-07</v>
+        <v>3.694611978712258e-07</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.210689762911503e-07</v>
+        <v>3.210571665124389e-07</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.68543962744068e-07</v>
+        <v>2.679223589913691e-07</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.168920925551475e-07</v>
+        <v>2.153292383487218e-07</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.697115609962373e-07</v>
+        <v>1.671024986848081e-07</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.293431794168422e-07</v>
+        <v>1.257414648564735e-07</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>9.80813853893625e-08</v>
+        <v>9.369658056598198e-08</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>7.822061648623948e-08</v>
+        <v>7.341828951563929e-08</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>7.205531027986903e-08</v>
+        <v>6.735703540770472e-08</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>8.187990434266335e-08</v>
+        <v>7.796326194445417e-08</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.099888362470518e-07</v>
+        <v>1.076874128281817e-07</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.586765435654219e-07</v>
+        <v>1.589799317611373e-07</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.340590238016215e-07</v>
+        <v>2.379320258659658e-07</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>3.86626508106045e-07</v>
+        <v>3.929098082109937e-07</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>6.695439749669413e-07</v>
+        <v>6.745065322458476e-07</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.007794642694099e-06</v>
+        <v>1.009604845507641e-06</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.288557857136425e-06</v>
+        <v>1.288622344417917e-06</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.474407817104763e-06</v>
+        <v>1.475424334800462e-06</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.623983546736644e-06</v>
+        <v>1.62745984461182e-06</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.802157477481838e-06</v>
+        <v>1.808250316512513e-06</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.073796147707709e-06</v>
+        <v>2.081311386864695e-06</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.472652918982932e-06</v>
+        <v>2.479503701099717e-06</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.92874133162014e-06</v>
+        <v>2.933475800100987e-06</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>3.350479875851491e-06</v>
+        <v>3.352599192559081e-06</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.646287041909244e-06</v>
+        <v>3.64624538716467e-06</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.73461166028471e-06</v>
+        <v>3.733754981989883e-06</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.66879125521377e-06</v>
+        <v>3.668533562909614e-06</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>3.598739936450105e-06</v>
+        <v>3.599973550573764e-06</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>3.676470583819744e-06</v>
+        <v>3.67955331943858e-06</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>4.014216173404379e-06</v>
+        <v>4.019105991513645e-06</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>4.553421526760978e-06</v>
+        <v>4.560254636402444e-06</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>5.189706506005771e-06</v>
+        <v>5.198952477520232e-06</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>5.818690412883095e-06</v>
+        <v>5.831152179807182e-06</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>6.335992812349509e-06</v>
+        <v>6.352806669271172e-06</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>6.665826774722827e-06</v>
+        <v>6.688229412716172e-06</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>6.839669004288477e-06</v>
+        <v>6.868123584281482e-06</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>6.914143734064667e-06</v>
+        <v>6.94813499824571e-06</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>6.945875197069416e-06</v>
+        <v>6.983909468887265e-06</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>6.98965812269494e-06</v>
+        <v>7.029316671408765e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>7.071564927126524e-06</v>
+        <v>7.11034176517215e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>7.194847423081731e-06</v>
+        <v>7.230814957244798e-06</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>7.362127871481399e-06</v>
+        <v>7.393955266210697e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>7.576028533246133e-06</v>
+        <v>7.602981710653607e-06</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>7.839171669296756e-06</v>
+        <v>7.861113309157499e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>8.154179540554021e-06</v>
+        <v>8.171569080306281e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>8.523674407938862e-06</v>
+        <v>8.537568042684037e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>8.950231250120321e-06</v>
+        <v>8.962279593520526e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>9.430266298369242e-06</v>
+        <v>9.442409702970831e-06</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>9.947991682208346e-06</v>
+        <v>9.961856489761751e-06</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.048618285278266e-05</v>
+        <v>1.050301032026017e-05</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.102761526123793e-05</v>
+        <v>1.104826156083366e-05</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.155506435871964e-05</v>
+        <v>1.158000057784959e-05</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.205130559637351e-05</v>
+        <v>1.208061773767552e-05</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.249911442534461e-05</v>
+        <v>1.253250340667836e-05</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.288126629677865e-05</v>
+        <v>1.291804795122568e-05</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.318056061933421e-05</v>
+        <v>1.321966644980317e-05</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.338475084333391e-05</v>
+        <v>1.34248840632069e-05</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.34925827992399e-05</v>
+        <v>1.353256456646139e-05</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.350428029014085e-05</v>
+        <v>1.354309625987499e-05</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.342006711912535e-05</v>
+        <v>1.345686744375596e-05</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.324016708928211e-05</v>
+        <v>1.327426641841273e-05</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.296480400369978e-05</v>
+        <v>1.299568148415361e-05</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.259420166546683e-05</v>
+        <v>1.262150094128676e-05</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.212858387767224e-05</v>
+        <v>1.215211309012086e-05</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.156892670354604e-05</v>
+        <v>1.158865463196939e-05</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.092764739677268e-05</v>
+        <v>1.094364476465906e-05</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.022606632760346e-05</v>
+        <v>1.023846012910191e-05</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>9.485738480023522e-06</v>
+        <v>9.494710776362418e-06</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>8.728218838017091e-06</v>
+        <v>8.734006757504092e-06</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>7.975062385568348e-06</v>
+        <v>7.977958123590426e-06</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>7.247824106662494e-06</v>
+        <v>7.248174925685925e-06</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>6.568058985283712e-06</v>
+        <v>6.566267214854078e-06</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>5.957322005416516e-06</v>
+        <v>5.953845042158707e-06</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>5.431800570413029e-06</v>
+        <v>5.427136370144886e-06</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>4.985545835238179e-06</v>
+        <v>4.980173081512359e-06</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>4.606903280038061e-06</v>
+        <v>4.601265962430195e-06</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>4.284218379118098e-06</v>
+        <v>4.278725793210992e-06</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>4.005836606783591e-06</v>
+        <v>4.000863354167237e-06</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>3.760103437340206e-06</v>
+        <v>3.755989425611776e-06</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>3.535364345093231e-06</v>
+        <v>3.532414787857079e-06</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>3.319964804347989e-06</v>
+        <v>3.318450221215651e-06</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>3.102291012424745e-06</v>
+        <v>3.102447086560005e-06</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.878366861631333e-06</v>
+        <v>2.88036772200014e-06</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.660792190785215e-06</v>
+        <v>2.66469242712264e-06</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.464339367571104e-06</v>
+        <v>2.470066430564455e-06</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.303780759673411e-06</v>
+        <v>2.311134960962233e-06</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.193888734776643e-06</v>
+        <v>2.202543246952722e-06</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.14943566056531e-06</v>
+        <v>2.158936517172667e-06</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.185193904723967e-06</v>
+        <v>2.194960000258862e-06</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.315935834937089e-06</v>
+        <v>2.325258924848021e-06</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>2.556142088171083e-06</v>
+        <v>2.564189035443581e-06</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>2.903950964377053e-06</v>
+        <v>2.909889589996257e-06</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.332816349537716e-06</v>
+        <v>3.336005524328577e-06</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>3.814142510552425e-06</v>
+        <v>3.814147939061136e-06</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>4.319333714320626e-06</v>
+        <v>4.315927934814622e-06</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>4.819794227741073e-06</v>
+        <v>4.812956612209033e-06</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>5.286928317713209e-06</v>
+        <v>5.276845071865055e-06</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>5.692140251136413e-06</v>
+        <v>5.679204414403311e-06</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>6.006834294909533e-06</v>
+        <v>5.991645740443892e-06</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>6.207837105957305e-06</v>
+        <v>6.191164250255539e-06</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>6.300353955492384e-06</v>
+        <v>6.282933361920032e-06</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>6.298842844114031e-06</v>
+        <v>6.281313884466975e-06</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>6.217766864506896e-06</v>
+        <v>6.200671683053453e-06</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>6.071589109355656e-06</v>
+        <v>6.055372622836562e-06</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>5.874772671344957e-06</v>
+        <v>5.859782568973381e-06</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.641780643159334e-06</v>
+        <v>5.628267386620871e-06</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>5.387076117483654e-06</v>
+        <v>5.375192940936327e-06</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>5.125121984430717e-06</v>
+        <v>5.114924895806801e-06</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.867665988376495e-06</v>
+        <v>4.859131218269796e-06</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.616934063213219e-06</v>
+        <v>4.610019256805356e-06</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>4.373066009172161e-06</v>
+        <v>4.367723632772986e-06</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>4.136201626484698e-06</v>
+        <v>4.132378967532309e-06</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.90648071538212e-06</v>
+        <v>3.904119882442848e-06</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>3.684043076096016e-06</v>
+        <v>3.683080998864428e-06</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>3.469028508857664e-06</v>
+        <v>3.469396938156571e-06</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>3.261576813898452e-06</v>
+        <v>3.263202321678897e-06</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>3.061827791449674e-06</v>
+        <v>3.064631770790942e-06</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>2.869921241742896e-06</v>
+        <v>2.873819906852508e-06</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>2.68599696500941e-06</v>
+        <v>2.690901351223124e-06</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.510194761480524e-06</v>
+        <v>2.516010725262339e-06</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>2.342654431387781e-06</v>
+        <v>2.349282650329931e-06</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.183515774962485e-06</v>
+        <v>2.190851747785444e-06</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.032918592435954e-06</v>
+        <v>2.040852638988433e-06</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.89100268403971e-06</v>
+        <v>1.899419945298657e-06</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.757907850005066e-06</v>
+        <v>1.766688288075668e-06</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.633726745447851e-06</v>
+        <v>1.64274638512672e-06</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.518237085032552e-06</v>
+        <v>1.52737630774159e-06</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.411087543107195e-06</v>
+        <v>1.420234485160936e-06</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.311926404172029e-06</v>
+        <v>1.320976967044254e-06</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.220401952727359e-06</v>
+        <v>1.229259803051093e-06</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.136162473273455e-06</v>
+        <v>1.144739042840964e-06</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.058856250310697e-06</v>
+        <v>1.067070736073494e-06</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>9.881315683393501e-07</v>
+        <v>9.959109324081912e-07</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>9.236367118596917e-07</v>
+        <v>9.309156815045768e-07</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>8.650199653720845e-07</v>
+        <v>8.717410330222576e-07</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>8.119296133768033e-07</v>
+        <v>8.180430366207525e-07</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>7.640139403741326e-07</v>
+        <v>7.694777419595897e-07</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>7.209212308644204e-07</v>
+        <v>7.257011986983616e-07</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>6.822997693479487e-07</v>
+        <v>6.863694564965942e-07</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>6.47797840325008e-07</v>
+        <v>6.511385650138214e-07</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>6.170637282959471e-07</v>
+        <v>6.196645739096371e-07</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>5.897457177610153e-07</v>
+        <v>5.916035328435334e-07</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>5.654920932205466e-07</v>
+        <v>5.666114914750888e-07</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>5.439511391748638e-07</v>
+        <v>5.443444994638708e-07</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>5.247711401242325e-07</v>
+        <v>5.244586064693878e-07</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>5.076003805689927e-07</v>
+        <v>5.066098621512249e-07</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>4.920871450094181e-07</v>
+        <v>4.904543161688987e-07</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>4.778797179458294e-07</v>
+        <v>4.756480181819745e-07</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>4.646263838785428e-07</v>
+        <v>4.61847017850013e-07</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>4.519754273078392e-07</v>
+        <v>4.48707364832538e-07</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>4.395751327340354e-07</v>
+        <v>4.358851087891109e-07</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>4.270934288188538e-07</v>
+        <v>4.230552997277211e-07</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>4.144272819818148e-07</v>
+        <v>4.101145189862758e-07</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>4.016217457918881e-07</v>
+        <v>3.971025816798451e-07</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>3.887243563925027e-07</v>
+        <v>3.840617041346644e-07</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>3.757826499270519e-07</v>
+        <v>3.710341026769337e-07</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>3.628441625389646e-07</v>
+        <v>3.580619936328891e-07</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>3.499564303716693e-07</v>
+        <v>3.451875933287658e-07</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>3.371669895685599e-07</v>
+        <v>3.324531180907643e-07</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>3.24523376273065e-07</v>
+        <v>3.199007842451205e-07</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>3.120731266286127e-07</v>
+        <v>3.075728081180689e-07</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>2.998637767785977e-07</v>
+        <v>2.955114060358112e-07</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>2.879428628664588e-07</v>
+        <v>2.83758794324593e-07</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.763579210355915e-07</v>
+        <v>2.72357189310617e-07</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.651564874294239e-07</v>
+        <v>2.613488073201176e-07</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.543860981913824e-07</v>
+        <v>2.507758646793282e-07</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>2.440942894648645e-07</v>
+        <v>2.406805777144533e-07</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>2.343285973932974e-07</v>
+        <v>2.311051627517268e-07</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>2.251355602115003e-07</v>
+        <v>2.220909298798582e-07</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>2.165328835154978e-07</v>
+        <v>2.136530052073908e-07</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>2.085057368968056e-07</v>
+        <v>2.057769677000375e-07</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>2.010375479731267e-07</v>
+        <v>1.984468143729975e-07</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.941117443621441e-07</v>
+        <v>1.916465422414501e-07</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.877117536815668e-07</v>
+        <v>1.853601483206e-07</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.818210035490797e-07</v>
+        <v>1.795716296256287e-07</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.764229215823853e-07</v>
+        <v>1.742649831717345e-07</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.715009353991841e-07</v>
+        <v>1.694242059741141e-07</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.67038472617164e-07</v>
+        <v>1.650332950479516e-07</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.630189608540259e-07</v>
+        <v>1.610762474084438e-07</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.594258277274693e-07</v>
+        <v>1.575370600707865e-07</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.562425008551842e-07</v>
+        <v>1.543997300501659e-07</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.534524078548707e-07</v>
+        <v>1.516482543617778e-07</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.51038976344227e-07</v>
+        <v>1.49266630020817e-07</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.489856339409453e-07</v>
+        <v>1.472388540424715e-07</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.472758082627244e-07</v>
+        <v>1.455489234419364e-07</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.45892926927262e-07</v>
+        <v>1.441808352344052e-07</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.448204175522519e-07</v>
+        <v>1.431185864350682e-07</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.440417077553925e-07</v>
+        <v>1.423461740591198e-07</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.43540225154379e-07</v>
+        <v>1.418475951217512e-07</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.432993973669086e-07</v>
+        <v>1.416068466381559e-07</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.433026520106777e-07</v>
+        <v>1.416079256235262e-07</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.435334167033827e-07</v>
+        <v>1.418348290930548e-07</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.439751190627203e-07</v>
+        <v>1.422715540619343e-07</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.446111867063862e-07</v>
+        <v>1.429020975453567e-07</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.45425047252078e-07</v>
+        <v>1.437104565585157e-07</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.464001283174917e-07</v>
+        <v>1.446806281166033e-07</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.475198575203226e-07</v>
+        <v>1.457966092348111e-07</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.487676624782694e-07</v>
+        <v>1.470423969283337e-07</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.501269708090275e-07</v>
+        <v>1.484019882123626e-07</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.515812101302918e-07</v>
+        <v>1.498593801020891e-07</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.531138080597617e-07</v>
+        <v>1.513985696127086e-07</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.547081922151309e-07</v>
+        <v>1.530035537594106e-07</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.563477902140985e-07</v>
+        <v>1.546583295573908e-07</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.580179543156184e-07</v>
+        <v>1.563487998000123e-07</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.597334411579113e-07</v>
+        <v>1.580899834725091e-07</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.615319569484332e-07</v>
+        <v>1.599196242044662e-07</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.634518166642237e-07</v>
+        <v>1.618760684286034e-07</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.65531335282322e-07</v>
+        <v>1.6399766257764e-07</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.678088277797728e-07</v>
+        <v>1.663227530843011e-07</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.703226091336156e-07</v>
+        <v>1.688896863813064e-07</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.731109943208887e-07</v>
+        <v>1.717368089013744e-07</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.762122983186383e-07</v>
+        <v>1.749024670772315e-07</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.796648361039e-07</v>
+        <v>1.784250073415935e-07</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.835069226537209e-07</v>
+        <v>1.823427761271877e-07</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.877768729451392e-07</v>
+        <v>1.866941198667327e-07</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.925130019551916e-07</v>
+        <v>1.915173849929452e-07</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.977536246609277e-07</v>
+        <v>1.968509179385552e-07</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>2.035370560393846e-07</v>
+        <v>2.027330651362799e-07</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>2.099016110675973e-07</v>
+        <v>2.092021730188345e-07</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>2.168856047226185e-07</v>
+        <v>2.162965880189521e-07</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>2.245273519814838e-07</v>
+        <v>2.240546565693484e-07</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>2.328651678212264e-07</v>
+        <v>2.325147251027368e-07</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>2.419373672189026e-07</v>
+        <v>2.417151400518538e-07</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.517822651515462e-07</v>
+        <v>2.516942478494136e-07</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.624381765961883e-07</v>
+        <v>2.624903949281273e-07</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>2.739519932805852e-07</v>
+        <v>2.741504113648059e-07</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>2.864628421015106e-07</v>
+        <v>2.868123611280262e-07</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>3.001659915771365e-07</v>
+        <v>3.006698403512089e-07</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>3.152575057282589e-07</v>
+        <v>3.159172320346614e-07</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>3.319334485756214e-07</v>
+        <v>3.327489191786394e-07</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>3.503898841400254e-07</v>
+        <v>3.513592847834556e-07</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>3.708228764422278e-07</v>
+        <v>3.719427118493791e-07</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>3.934284895029787e-07</v>
+        <v>3.946935833766711e-07</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>4.184027873430899e-07</v>
+        <v>4.198062823656557e-07</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>4.459418339833136e-07</v>
+        <v>4.474751918165963e-07</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>4.762416934443923e-07</v>
+        <v>4.778946947297472e-07</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>5.094984297471518e-07</v>
+        <v>5.112591741054462e-07</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>5.459081069123376e-07</v>
+        <v>5.477630129439503e-07</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>5.856654244523772e-07</v>
+        <v>5.875989377382755e-07</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>6.289557025377202e-07</v>
+        <v>6.309482885004966e-07</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>6.759603184156913e-07</v>
+        <v>6.779876185509635e-07</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>7.268606356890568e-07</v>
+        <v>7.288934646455562e-07</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>7.818380179604579e-07</v>
+        <v>7.838423635400297e-07</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>8.410738288325207e-07</v>
+        <v>8.430108519901239e-07</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>9.047494319080337e-07</v>
+        <v>9.065754667517408e-07</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>9.730461907896271e-07</v>
+        <v>9.747127445806242e-07</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.046145469079914e-06</v>
+        <v>1.047599222232502e-06</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.123959851240943e-06</v>
+        <v>1.125144796302965e-06</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.205174481169197e-06</v>
+        <v>1.206041690958597e-06</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.288124316205291e-06</v>
+        <v>1.288634730641661e-06</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.371144287264801e-06</v>
+        <v>1.371268713579682e-06</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.452569325263009e-06</v>
+        <v>1.452288437999888e-06</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.530734361115492e-06</v>
+        <v>1.530038702129801e-06</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.603974325737603e-06</v>
+        <v>1.602864304196722e-06</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.670624150044712e-06</v>
+        <v>1.669110042427968e-06</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.729018764952371e-06</v>
+        <v>1.727120715051035e-06</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.777493101375942e-06</v>
+        <v>1.775241120293234e-06</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.814382090230826e-06</v>
+        <v>1.811816056381911e-06</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.838020662432519e-06</v>
+        <v>1.83519032154451e-06</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.846743748896409e-06</v>
+        <v>1.843708714008365e-06</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>1.838886280537941e-06</v>
+        <v>1.835716032000866e-06</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.812783188272528e-06</v>
+        <v>1.809557073749375e-06</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.766769403015598e-06</v>
+        <v>1.763576637481265e-06</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.69917985568265e-06</v>
+        <v>1.696119521423982e-06</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.608924035581587e-06</v>
+        <v>1.606102018981023e-06</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.498763313426948e-06</v>
+        <v>1.496271768936488e-06</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>1.373042369824033e-06</v>
+        <v>1.370951278663519e-06</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.236110752792953e-06</v>
+        <v>1.234467896999798e-06</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.092318010354289e-06</v>
+        <v>1.091148972783475e-06</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>9.460136905281172e-07</v>
+        <v>9.453218548522007e-07</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>8.015473413349087e-07</v>
+        <v>8.013138920440153e-07</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>6.632685107951239e-07</v>
+        <v>6.634524331969503e-07</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>5.355267469288524e-07</v>
+        <v>5.36064827148667e-07</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>4.22671597756563e-07</v>
+        <v>4.234784227372053e-07</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>3.290492392597585e-07</v>
+        <v>3.300172162330017e-07</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>2.571380976600237e-07</v>
+        <v>2.581482392042502e-07</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>2.04450486624e-07</v>
+        <v>2.054010867810332e-07</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.676824735226904e-07</v>
+        <v>1.684938210969557e-07</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.435301257270074e-07</v>
+        <v>1.441445042855318e-07</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.286895106079772e-07</v>
+        <v>1.290711984803896e-07</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.198566955365516e-07</v>
+        <v>1.199919658150824e-07</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.137386593692985e-07</v>
+        <v>1.136357041672355e-07</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.081264012915775e-07</v>
+        <v>1.078078070690721e-07</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.02799811613513e-07</v>
+        <v>1.022887533869283e-07</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>9.775183831549968e-08</v>
+        <v>9.7070600727994e-08</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>9.297542937793134e-08</v>
+        <v>9.21454066994579e-08</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>8.846353278118889e-08</v>
+        <v>8.750522890849556e-08</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>8.420909650566636e-08</v>
+        <v>8.314212496229596e-08</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>8.020506853175682e-08</v>
+        <v>7.904815246804717e-08</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>7.644439683984255e-08</v>
+        <v>7.521536903292617e-08</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>7.292002941031686e-08</v>
+        <v>7.163583226412124e-08</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>6.96249142235722e-08</v>
+        <v>6.830159976881967e-08</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>6.655199925999217e-08</v>
+        <v>6.520472915419996e-08</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>6.369423249996936e-08</v>
+        <v>6.233727802744956e-08</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>6.104456192389571e-08</v>
+        <v>5.969130399575526e-08</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>5.859593551215594e-08</v>
+        <v>5.725886466629668e-08</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>5.634130124514407e-08</v>
+        <v>5.503201764626269e-08</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>5.427360710324558e-08</v>
+        <v>5.300282054283367e-08</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>5.238580106685215e-08</v>
+        <v>5.116333096319618e-08</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>5.067083111635484e-08</v>
+        <v>4.950560651453605e-08</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>4.912164523214006e-08</v>
+        <v>4.802170480403475e-08</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>4.773119139459903e-08</v>
+        <v>4.670368343887824e-08</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>4.649241758412235e-08</v>
+        <v>4.554360002625196e-08</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>4.539827178109736e-08</v>
+        <v>4.453351217333826e-08</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>4.44417019659148e-08</v>
+        <v>4.366547748732266e-08</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>4.361565611896489e-08</v>
+        <v>4.293155357539021e-08</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>4.291308222063575e-08</v>
+        <v>4.232379804472403e-08</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>4.232692825131815e-08</v>
+        <v>4.183426850250963e-08</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>4.185014219140067e-08</v>
+        <v>4.145502255593061e-08</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>4.147567202127341e-08</v>
+        <v>4.117811781217184e-08</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>4.119646572132614e-08</v>
+        <v>4.099561187841791e-08</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>4.100547127194793e-08</v>
+        <v>4.089956236185294e-08</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>4.089563665352862e-08</v>
+        <v>4.088202686966152e-08</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>4.085990984645778e-08</v>
+        <v>4.093506300902803e-08</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>4.08912388311249e-08</v>
+        <v>4.105072838713701e-08</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>4.09825715879196e-08</v>
+        <v>4.122108061117286e-08</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>4.11268560972313e-08</v>
+        <v>4.143817728831979e-08</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>4.13170403394498e-08</v>
+        <v>4.169407602576263e-08</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>4.154607229496436e-08</v>
+        <v>4.198083443068539e-08</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>4.180689994416493e-08</v>
+        <v>4.229051011027298e-08</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>4.20924712674409e-08</v>
+        <v>4.261516067170961e-08</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>4.239573697047099e-08</v>
+        <v>4.294684680588505e-08</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>4.271249867420503e-08</v>
+        <v>4.328085505678827e-08</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>4.30468064185602e-08</v>
+        <v>4.362180517734651e-08</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>4.340419332627885e-08</v>
+        <v>4.397599505079722e-08</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>4.379019252010434e-08</v>
+        <v>4.434972256037881e-08</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>4.421033712277907e-08</v>
+        <v>4.474928558932876e-08</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>4.467016025704528e-08</v>
+        <v>4.518098202088441e-08</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>4.517519504564651e-08</v>
+        <v>4.565110973828433e-08</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>4.573097461132508e-08</v>
+        <v>4.616596662476593e-08</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>4.63430320768231e-08</v>
+        <v>4.673185056356644e-08</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>4.701690056488437e-08</v>
+        <v>4.735505943792463e-08</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>4.775811319825106e-08</v>
+        <v>4.804189113107782e-08</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>4.857220309966513e-08</v>
+        <v>4.879864352626306e-08</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>4.946470339187072e-08</v>
+        <v>4.963161450671948e-08</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>5.044114719760891e-08</v>
+        <v>5.054710195568336e-08</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>5.15070676396242e-08</v>
+        <v>5.155140375639412e-08</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>5.266799784065838e-08</v>
+        <v>5.265081779208872e-08</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>5.392947092345304e-08</v>
+        <v>5.385164194600383e-08</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>5.52970200107531e-08</v>
+        <v>5.516017410137937e-08</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>5.67761782253002e-08</v>
+        <v>5.658271214145211e-08</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>5.837247868983552e-08</v>
+        <v>5.812555394945834e-08</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>6.009145452710467e-08</v>
+        <v>5.979499740863865e-08</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>6.193863885984893e-08</v>
+        <v>6.159734040222943e-08</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>6.39195648108092e-08</v>
+        <v>6.35388808134667e-08</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>6.603976550273173e-08</v>
+        <v>6.562591652559169e-08</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>6.830477405835536e-08</v>
+        <v>6.786474542183843e-08</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>7.072012360042691e-08</v>
+        <v>7.026166538544872e-08</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>7.329134725168707e-08</v>
+        <v>7.282297429965835e-08</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>7.602397813487607e-08</v>
+        <v>7.555497004770262e-08</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>7.892354937274143e-08</v>
+        <v>7.846395051282414e-08</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>8.199559408802354e-08</v>
+        <v>8.155621357825841e-08</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>8.524564540346209e-08</v>
+        <v>8.483805712724006e-08</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>8.86792364418056e-08</v>
+        <v>8.831577904301284e-08</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>9.230190032579395e-08</v>
+        <v>9.199567720881163e-08</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>9.61191701781663e-08</v>
+        <v>9.58840495078706e-08</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.001365791216722e-07</v>
+        <v>9.998719382343455e-08</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.043596602790472e-07</v>
+        <v>1.043114080387338e-07</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.087939467730415e-07</v>
+        <v>1.08862990037014e-07</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.134449713088083e-07</v>
+        <v>1.136482372525811e-07</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.183062815539625e-07</v>
+        <v>1.186605625403232e-07</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.233280973622552e-07</v>
+        <v>1.238467989545272e-07</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.284508507001737e-07</v>
+        <v>1.291432570283455e-07</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.33614973534187e-07</v>
+        <v>1.344862472949119e-07</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.387608978307827e-07</v>
+        <v>1.398120802873791e-07</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.438290555564341e-07</v>
+        <v>1.450570665388856e-07</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.487598786776151e-07</v>
+        <v>1.5015751658257e-07</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.534937991608126e-07</v>
+        <v>1.550497409515845e-07</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.579712489725004e-07</v>
+        <v>1.596700501790678e-07</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.62132660079153e-07</v>
+        <v>1.639547547981591e-07</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.65918464447256e-07</v>
+        <v>1.678401653420095e-07</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.692690940432836e-07</v>
+        <v>1.712625923437579e-07</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.721249808337119e-07</v>
+        <v>1.741583463365454e-07</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.744265567850238e-07</v>
+        <v>1.7646373785352e-07</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.761142538636937e-07</v>
+        <v>1.781150774278212e-07</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.771285040362027e-07</v>
+        <v>1.790486755925948e-07</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.774097392690271e-07</v>
+        <v>1.792008428809823e-07</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.769039766870343e-07</v>
+        <v>1.785139366544358e-07</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.756552899166969e-07</v>
+        <v>1.770364761392039e-07</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.737914075406562e-07</v>
+        <v>1.749075504472744e-07</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.714427401901536e-07</v>
+        <v>1.722691524377216e-07</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.687396984964239e-07</v>
+        <v>1.692632749696123e-07</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.658126930907078e-07</v>
+        <v>1.660319109020202e-07</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.62792134604247e-07</v>
+        <v>1.627170530940201e-07</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.598084336682752e-07</v>
+        <v>1.594606944046776e-07</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.569920009140363e-07</v>
+        <v>1.564048276930698e-07</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.544732469727641e-07</v>
+        <v>1.536914458182629e-07</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.523825824757004e-07</v>
+        <v>1.514625416393315e-07</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.508504180540852e-07</v>
+        <v>1.498601080153481e-07</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.500071643391546e-07</v>
+        <v>1.490261378053816e-07</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.499832319621493e-07</v>
+        <v>1.491026238685054e-07</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.509084068595857e-07</v>
+        <v>1.502308962094277e-07</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.528052391234821e-07</v>
+        <v>1.524384984587277e-07</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.554683507873057e-07</v>
+        <v>1.555111231433126e-07</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.586632064584131e-07</v>
+        <v>1.59203524274973e-07</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.621552707441698e-07</v>
+        <v>1.632704558655098e-07</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.657100082519299e-07</v>
+        <v>1.674666719267103e-07</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.690928835890596e-07</v>
+        <v>1.715469264703762e-07</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.720693613629155e-07</v>
+        <v>1.752659735082979e-07</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.744049061808572e-07</v>
+        <v>1.783785670522693e-07</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.758729863689488e-07</v>
+        <v>1.806465824737034e-07</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.764990541232263e-07</v>
+        <v>1.820560993949027e-07</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.766052740174585e-07</v>
+        <v>1.828571991633001e-07</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.765308349836244e-07</v>
+        <v>1.833151106573212e-07</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.766149259537027e-07</v>
+        <v>1.836950627553895e-07</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.771967358596719e-07</v>
+        <v>1.842622843359288e-07</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.786154536335119e-07</v>
+        <v>1.852820042773646e-07</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.81175225520212e-07</v>
+        <v>1.869960077871312e-07</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.845880035904829e-07</v>
+        <v>1.892499002538067e-07</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.880724643804845e-07</v>
+        <v>1.91559284137179e-07</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.908322328591413e-07</v>
+        <v>1.934296923498504e-07</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.920709339953808e-07</v>
+        <v>1.943666578044251e-07</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.912104541184257e-07</v>
+        <v>1.940008722977947e-07</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.886492715859977e-07</v>
+        <v>1.925230404872367e-07</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.850588978025604e-07</v>
+        <v>1.902804339617907e-07</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.811108568997002e-07</v>
+        <v>1.876203316086846e-07</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.773685726216493e-07</v>
+        <v>1.848364885200104e-07</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.739135512874694e-07</v>
+        <v>1.819840477886869e-07</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.706930554005402e-07</v>
+        <v>1.790516843046544e-07</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.676543417795729e-07</v>
+        <v>1.760280701432016e-07</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.647446672432703e-07</v>
+        <v>1.729018773796087e-07</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.619112886103439e-07</v>
+        <v>1.696617780891643e-07</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.591014626995047e-07</v>
+        <v>1.662964443471573e-07</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.562624463294563e-07</v>
+        <v>1.627945482288674e-07</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.533414963189123e-07</v>
+        <v>1.591447618095869e-07</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.50285869486576e-07</v>
+        <v>1.553357571645948e-07</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.470428226511585e-07</v>
+        <v>1.513562063691804e-07</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.435596126313683e-07</v>
+        <v>1.471947814986293e-07</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.397834962459176e-07</v>
+        <v>1.428401546282315e-07</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.356647414903677e-07</v>
+        <v>1.382827425810522e-07</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.312263305464616e-07</v>
+        <v>1.335550945162441e-07</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.265659338944688e-07</v>
+        <v>1.287330357768709e-07</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.217846281028174e-07</v>
+        <v>1.238943652748279e-07</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.169834897399358e-07</v>
+        <v>1.191168819220104e-07</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.122635953742394e-07</v>
+        <v>1.144783846303005e-07</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.077260215741567e-07</v>
+        <v>1.100566723115936e-07</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.034718449081156e-07</v>
+        <v>1.059295438777843e-07</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>9.960214194453233e-08</v>
+        <v>1.021747982407559e-07</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>9.621798925183513e-08</v>
+        <v>9.887023431240335e-08</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>9.342046339845037e-08</v>
+        <v>9.609365100461985e-08</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>9.131064095279704e-08</v>
+        <v>9.392284722929125e-08</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>8.998959848330289e-08</v>
+        <v>9.243562189831228e-08</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>8.954797629363473e-08</v>
+        <v>9.170877734034994e-08</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>9.001729350154882e-08</v>
+        <v>9.181347026437483e-08</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>9.140827462883616e-08</v>
+        <v>9.281887165496799e-08</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>9.373162121518293e-08</v>
+        <v>9.479415030209852e-08</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>9.699803480027209e-08</v>
+        <v>9.780847499573316e-08</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.012182169237831e-07</v>
+        <v>1.01931014525835e-07</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.064028691254073e-07</v>
+        <v>1.072309376823788e-07</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.125626929448251e-07</v>
+        <v>1.137774132553286e-07</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.197083962518262e-07</v>
+        <v>1.216396162105765e-07</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.289933995194803e-07</v>
+        <v>1.32001601471336e-07</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.459016203273458e-07</v>
+        <v>1.502724446837809e-07</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.768701666272051e-07</v>
+        <v>1.827890254834257e-07</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>2.236521162553718e-07</v>
+        <v>2.311780406182373e-07</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.805404510568522e-07</v>
+        <v>2.895644382112855e-07</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>3.411624843036609e-07</v>
+        <v>3.514037811246631e-07</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>3.991455292676568e-07</v>
+        <v>4.101516322203033e-07</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>4.481168992207091e-07</v>
+        <v>4.592635543601511e-07</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>4.817821963124374e-07</v>
+        <v>4.922773983288111e-07</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>4.98838694991771e-07</v>
+        <v>5.079776649580589e-07</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>5.058949273553086e-07</v>
+        <v>5.134642247236293e-07</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>5.102607348395371e-07</v>
+        <v>5.165740807615244e-07</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>5.192459588809131e-07</v>
+        <v>5.251442362077208e-07</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>5.394031883778742e-07</v>
+        <v>5.461857416878862e-07</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>5.699330932596474e-07</v>
+        <v>5.786907431383097e-07</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>6.059021246473367e-07</v>
+        <v>6.171421003175856e-07</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>6.423306616352926e-07</v>
+        <v>6.559724211802653e-07</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>6.742390833179667e-07</v>
+        <v>6.89614313681008e-07</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>6.969585520648551e-07</v>
+        <v>7.128612991992029e-07</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>7.093162315703601e-07</v>
+        <v>7.245668145353713e-07</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>7.123404953024924e-07</v>
+        <v>7.261405671188291e-07</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>7.070940404241393e-07</v>
+        <v>7.19032124574921e-07</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>6.946395640981706e-07</v>
+        <v>7.04691054528969e-07</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>6.760397303586377e-07</v>
+        <v>6.845626211548542e-07</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>6.523556838537344e-07</v>
+        <v>6.598947196429053e-07</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>6.246464500312412e-07</v>
+        <v>6.316599600010961e-07</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>5.939708970683816e-07</v>
+        <v>6.008105227056784e-07</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>5.613878931423904e-07</v>
+        <v>5.682985882329122e-07</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>5.279563064304129e-07</v>
+        <v>5.350763370589699e-07</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>4.947350051097118e-07</v>
+        <v>5.020959496601406e-07</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>4.627697112781528e-07</v>
+        <v>4.702979500463017e-07</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>4.326471758465846e-07</v>
+        <v>4.402158981388278e-07</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>4.043864237753167e-07</v>
+        <v>4.118799582636355e-07</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.779712741942591e-07</v>
+        <v>3.852890781712046e-07</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>3.533855462333985e-07</v>
+        <v>3.604422056120915e-07</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>3.306130590227151e-07</v>
+        <v>3.37338288336847e-07</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>3.096376316921286e-07</v>
+        <v>3.159762740959596e-07</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.904430833716207e-07</v>
+        <v>2.963551106399816e-07</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.730132331911671e-07</v>
+        <v>2.784737457194586e-07</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>2.573319002806967e-07</v>
+        <v>2.623311270848888e-07</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>2.433829037701985e-07</v>
+        <v>2.479262024868318e-07</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.311500627896078e-07</v>
+        <v>2.352579196757921e-07</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.206171964688985e-07</v>
+        <v>2.243252264023137e-07</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.117617359760122e-07</v>
+        <v>2.151203235540832e-07</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.043878326013035e-07</v>
+        <v>2.074523965963089e-07</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.981103121043462e-07</v>
+        <v>2.009306684106359e-07</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.925343952601344e-07</v>
+        <v>1.951542172483272e-07</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.872653028436402e-07</v>
+        <v>1.897221213606231e-07</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.819082556298512e-07</v>
+        <v>1.842334589987795e-07</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.76068474393755e-07</v>
+        <v>1.782873084140524e-07</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.693511799103233e-07</v>
+        <v>1.71482747857682e-07</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.613619058386284e-07</v>
+        <v>1.634191699739589e-07</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.519549473431506e-07</v>
+        <v>1.539459286179813e-07</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.416803279053589e-07</v>
+        <v>1.436114612599828e-07</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.312087676209782e-07</v>
+        <v>1.330854840696089e-07</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.21210986585734e-07</v>
+        <v>1.230377132165061e-07</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.123577048953245e-07</v>
+        <v>1.141378648702933e-07</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.053196426454813e-07</v>
+        <v>1.070556552006232e-07</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.007675199319082e-07</v>
+        <v>1.024608003771201e-07</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>9.937205685032915e-08</v>
+        <v>1.010230165694289e-07</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.018039734964571e-07</v>
+        <v>1.034120199471835e-07</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.087339899660126e-07</v>
+        <v>1.102975266800252e-07</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.208328263547123e-07</v>
+        <v>1.223492529375915e-07</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.38771202758254e-07</v>
+        <v>1.402369148895012e-07</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.632198392723866e-07</v>
+        <v>1.646302287054236e-07</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.952124540946679e-07</v>
+        <v>1.965685129908681e-07</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.4032499108127e-07</v>
+        <v>2.41715952594957e-07</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>3.072245755384805e-07</v>
+        <v>3.088841543171951e-07</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>4.046375791140238e-07</v>
+        <v>4.06945049217742e-07</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>5.412903734559309e-07</v>
+        <v>5.447705683570657e-07</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>7.259093302119905e-07</v>
+        <v>7.312326427953905e-07</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>9.580918378499735e-07</v>
+        <v>9.659196817867925e-07</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.153982070950917e-06</v>
+        <v>1.16355415545135e-06</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.18499932386009e-06</v>
+        <v>1.19337653522884e-06</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.064985929581528e-06</v>
+        <v>1.069278399954432e-06</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.112738671502764e-06</v>
+        <v>1.115185880705742e-06</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.268364662616153e-06</v>
+        <v>1.270906752651715e-06</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.424483773750845e-06</v>
+        <v>1.428060088914147e-06</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.483366308868272e-06</v>
+        <v>1.487962720331678e-06</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.449012408951655e-06</v>
+        <v>1.454160185873254e-06</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.386407919751445e-06</v>
+        <v>1.391482795970054e-06</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.360744230964728e-06</v>
+        <v>1.364975267549121e-06</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.390591315942829e-06</v>
+        <v>1.393421826171245e-06</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.418472128564709e-06</v>
+        <v>1.420135136854083e-06</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.41699453707106e-06</v>
+        <v>1.41805114841949e-06</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.390449345576093e-06</v>
+        <v>1.391350546283035e-06</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.344119626456753e-06</v>
+        <v>1.345192560292625e-06</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.283288452090042e-06</v>
+        <v>1.284736420296231e-06</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.21323889485302e-06</v>
+        <v>1.215141356141877e-06</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.13925402712255e-06</v>
+        <v>1.141566597677393e-06</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.066419122309512e-06</v>
+        <v>1.06898042798323e-06</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>9.969824771449523e-07</v>
+        <v>9.996124326776646e-07</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>9.310695706376937e-07</v>
+        <v>9.336429188107492e-07</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>8.687546906351222e-07</v>
+        <v>8.712027756474382e-07</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>8.101121249846109e-07</v>
+        <v>8.124228924526729e-07</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>7.55216161533376e-07</v>
+        <v>7.57434158491237e-07</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>7.041410881288377e-07</v>
+        <v>7.063674630281195e-07</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>6.569611926182254e-07</v>
+        <v>6.593536953281175e-07</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>6.137513968965823e-07</v>
+        <v>6.165241999568501e-07</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>5.747664051429844e-07</v>
+        <v>5.781394205994086e-07</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>5.406870068887645e-07</v>
+        <v>5.447657668156049e-07</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>5.122557230227372e-07</v>
+        <v>5.170139765813858e-07</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>4.902150744336963e-07</v>
+        <v>4.954947878726775e-07</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>4.752263947062312e-07</v>
+        <v>4.807437163857558e-07</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>4.665864124115058e-07</v>
+        <v>4.720319335831035e-07</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>4.624590717553944e-07</v>
+        <v>4.675810549265305e-07</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>4.609739981814954e-07</v>
+        <v>4.655808985967511e-07</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>4.602608171334201e-07</v>
+        <v>4.642212827744937e-07</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>4.584491540547733e-07</v>
+        <v>4.616920256404784e-07</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>4.536686343891605e-07</v>
+        <v>4.561829453754273e-07</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>4.442623175590328e-07</v>
+        <v>4.460962391164824e-07</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>4.307476827262422e-07</v>
+        <v>4.319977753972938e-07</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>4.149119286183867e-07</v>
+        <v>4.157168659847651e-07</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>3.985581653774848e-07</v>
+        <v>3.990986554087363e-07</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>3.834895031455094e-07</v>
+        <v>3.839882881990013e-07</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>3.715002847692772e-07</v>
+        <v>3.722216738325601e-07</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>3.630383311598698e-07</v>
+        <v>3.642163594590655e-07</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>3.557665481589671e-07</v>
+        <v>3.574563948119968e-07</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>3.471277550943188e-07</v>
+        <v>3.491964898820679e-07</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>3.362982383545614e-07</v>
+        <v>3.385518441009212e-07</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>3.237225222009269e-07</v>
+        <v>3.259988267913285e-07</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>3.098741500285099e-07</v>
+        <v>3.120449528301674e-07</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>2.952266652324179e-07</v>
+        <v>2.9719773709433e-07</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>2.802536112077187e-07</v>
+        <v>2.81964694460667e-07</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>2.654285313495326e-07</v>
+        <v>2.668533398060827e-07</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>2.512222782345347e-07</v>
+        <v>2.523683088536567e-07</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.379237546197802e-07</v>
+        <v>2.388195525008976e-07</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.255273753618975e-07</v>
+        <v>2.262019219895611e-07</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.140007078857108e-07</v>
+        <v>2.144815420279643e-07</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>2.033113196160788e-07</v>
+        <v>2.036245373244595e-07</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.934267779778565e-07</v>
+        <v>1.935970325873952e-07</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.84314650395873e-07</v>
+        <v>1.843651525250934e-07</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.759425042949844e-07</v>
+        <v>1.758950218459037e-07</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.682779071000439e-07</v>
+        <v>1.681527652581729e-07</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.612884262358847e-07</v>
+        <v>1.611045074702271e-07</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.54941629127366e-07</v>
+        <v>1.547163731904192e-07</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.492050831993233e-07</v>
+        <v>1.489544871270778e-07</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.440463558766092e-07</v>
+        <v>1.437849739885489e-07</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.394330145840745e-07</v>
+        <v>1.391739584831766e-07</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.353326267465578e-07</v>
+        <v>1.350875653192929e-07</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.3171275978891e-07</v>
+        <v>1.31491919205242e-07</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.285409811359806e-07</v>
+        <v>1.283531448493668e-07</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.257848582126107e-07</v>
+        <v>1.256373669600017e-07</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.234119584436502e-07</v>
+        <v>1.233107102454898e-07</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.213898492539475e-07</v>
+        <v>1.21339299414173e-07</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.196860980683457e-07</v>
+        <v>1.196892591743875e-07</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.182682723116946e-07</v>
+        <v>1.183267142344768e-07</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.171039394088386e-07</v>
+        <v>1.172177893027784e-07</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.161606667846259e-07</v>
+        <v>1.163286090876337e-07</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.154060218639031e-07</v>
+        <v>1.156252982973829e-07</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.148075720715175e-07</v>
+        <v>1.150739816403665e-07</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.143328848323148e-07</v>
+        <v>1.146407838249236e-07</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.139534309288352e-07</v>
+        <v>1.142959514323891e-07</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.136624192761685e-07</v>
+        <v>1.140326861070345e-07</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.13460581714469e-07</v>
+        <v>1.138521335618282e-07</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.133486573534254e-07</v>
+        <v>1.137554471862318e-07</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.133273853027264e-07</v>
+        <v>1.137437803697068e-07</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.133975046720609e-07</v>
+        <v>1.138182865017146e-07</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.135597545711175e-07</v>
+        <v>1.139801189717168e-07</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.138148741095853e-07</v>
+        <v>1.14230431169175e-07</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.141636023971529e-07</v>
+        <v>1.145703764835507e-07</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.146066785435086e-07</v>
+        <v>1.150011083043049e-07</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.151448416583421e-07</v>
+        <v>1.155237800209e-07</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.157788308513411e-07</v>
+        <v>1.161395450227965e-07</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.165093852321957e-07</v>
+        <v>1.168495566994571e-07</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.173372439105938e-07</v>
+        <v>1.176549684403428e-07</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.182631459962236e-07</v>
+        <v>1.185569336349141e-07</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.192878305987755e-07</v>
+        <v>1.195566056726344e-07</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.204120368279374e-07</v>
+        <v>1.206551379429642e-07</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.216365037933969e-07</v>
+        <v>1.218536838353641e-07</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.229619706048451e-07</v>
+        <v>1.231533967392976e-07</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.243891763719697e-07</v>
+        <v>1.245554300442253e-07</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.25918860204458e-07</v>
+        <v>1.260609371396072e-07</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.275517612120015e-07</v>
+        <v>1.276710714149078e-07</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.292886185042861e-07</v>
+        <v>1.293869862595854e-07</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.311301711910037e-07</v>
+        <v>1.312098350631047e-07</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.330771583818416e-07</v>
+        <v>1.331407712149257e-07</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.351303191864866e-07</v>
+        <v>1.351809481045082e-07</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.372903927146312e-07</v>
+        <v>1.373315191213172e-07</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.395581180759624e-07</v>
+        <v>1.395936376548125e-07</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.419342343801667e-07</v>
+        <v>1.419684570944535e-07</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.444194807369372e-07</v>
+        <v>1.444571308297058e-07</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.470145962559607e-07</v>
+        <v>1.470608122500291e-07</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.497203200469233e-07</v>
+        <v>1.497806547448821e-07</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.525373912195189e-07</v>
+        <v>1.526178117037315e-07</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.554665488834309e-07</v>
+        <v>1.555734365160335e-07</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.585085321483536e-07</v>
+        <v>1.586486825712551e-07</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.616762695651969e-07</v>
+        <v>1.618565796911149e-07</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.650402854724998e-07</v>
+        <v>1.65266274500199e-07</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.686880990685445e-07</v>
+        <v>1.689634720769881e-07</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.727072320148967e-07</v>
+        <v>1.730338798999927e-07</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.771852059731083e-07</v>
+        <v>1.775632054477091e-07</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.822095426047462e-07</v>
+        <v>1.826371561986494e-07</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.878677635713659e-07</v>
+        <v>1.883414396313136e-07</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.942473905345203e-07</v>
+        <v>1.947617632241994e-07</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>2.014359451557802e-07</v>
+        <v>2.019838344558221e-07</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>2.095209490966992e-07</v>
+        <v>2.100933608046805e-07</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>2.185899240188278e-07</v>
+        <v>2.191760497492695e-07</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>2.287248890639095e-07</v>
+        <v>2.293121748385122e-07</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>2.399095750308835e-07</v>
+        <v>2.404849464663908e-07</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>2.520429578472996e-07</v>
+        <v>2.525938766453812e-07</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>2.650212362498558e-07</v>
+        <v>2.655357348154604e-07</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>2.787406089752054e-07</v>
+        <v>2.792072904165612e-07</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>2.930972747600494e-07</v>
+        <v>2.935053128886635e-07</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>3.079874323410522e-07</v>
+        <v>3.08326571671711e-07</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.233072804548759e-07</v>
+        <v>3.235678362056453e-07</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>3.389530178382245e-07</v>
+        <v>3.391258759304493e-07</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>3.548208432277606e-07</v>
+        <v>3.548974602860652e-07</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>3.708069553601462e-07</v>
+        <v>3.707793587124338e-07</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>3.868075529720866e-07</v>
+        <v>3.866683406495397e-07</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>4.027188348002432e-07</v>
+        <v>4.024611755373237e-07</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>4.184369995812787e-07</v>
+        <v>4.180546328157278e-07</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>4.338582460518975e-07</v>
+        <v>4.333454819247352e-07</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>4.489892391245569e-07</v>
+        <v>4.483415242759707e-07</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>4.643462935269031e-07</v>
+        <v>4.635628214678619e-07</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>4.805926043991145e-07</v>
+        <v>4.796770678170664e-07</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>4.983913805914752e-07</v>
+        <v>4.973519714205692e-07</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>5.184058309543177e-07</v>
+        <v>5.17255240375403e-07</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>5.412991643379277e-07</v>
+        <v>5.400545827785552e-07</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.677345895925807e-07</v>
+        <v>5.664177067270019e-07</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.983753155686253e-07</v>
+        <v>5.970123203177917e-07</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>6.338841341803791e-07</v>
+        <v>6.325056980400358e-07</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>6.747946810529157e-07</v>
+        <v>6.734307935550775e-07</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>7.213292388605837e-07</v>
+        <v>7.199967575850917e-07</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>7.73664116969656e-07</v>
+        <v>7.723649292216193e-07</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>8.319756247463838e-07</v>
+        <v>8.306966475561796e-07</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>8.964400715571791e-07</v>
+        <v>8.951532516804531e-07</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>9.672337667682992e-07</v>
+        <v>9.658960806859645e-07</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.044533019745979e-06</v>
+        <v>1.043086473664217e-06</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.128514139856664e-06</v>
+        <v>1.126885769706925e-06</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.219274890018804e-06</v>
+        <v>1.217379530919321e-06</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.315954567102497e-06</v>
+        <v>1.313728647818943e-06</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.417051857778137e-06</v>
+        <v>1.41447598793598e-06</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.52105372646136e-06</v>
+        <v>1.5181531098597e-06</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.626447137568086e-06</v>
+        <v>1.62329157217965e-06</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.731719055513952e-06</v>
+        <v>1.728422933485099e-06</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.835356444714598e-06</v>
+        <v>1.832078752365316e-06</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.935846269585942e-06</v>
+        <v>1.932790587409849e-06</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>2.03167549454362e-06</v>
+        <v>2.029089997207967e-06</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>2.121246414559716e-06</v>
+        <v>2.119417452054417e-06</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>2.201755954193157e-06</v>
+        <v>2.200916671839254e-06</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>2.269503639783836e-06</v>
+        <v>2.269765945833894e-06</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>2.32076760837764e-06</v>
+        <v>2.322120552478071e-06</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>2.351825997020256e-06</v>
+        <v>2.354135770211329e-06</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>2.358956942757449e-06</v>
+        <v>2.361966877473278e-06</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>2.338440494578372e-06</v>
+        <v>2.341771102464793e-06</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>2.289658837431125e-06</v>
+        <v>2.292869168986371e-06</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>2.221404593213456e-06</v>
+        <v>2.224178374384853e-06</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>2.144248108402964e-06</v>
+        <v>2.146428903630365e-06</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.068759728686144e-06</v>
+        <v>2.070350940890615e-06</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.003363632327326e-06</v>
+        <v>2.004497814885587e-06</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.94808332182403e-06</v>
+        <v>1.948902057393388e-06</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.900887147522629e-06</v>
+        <v>1.901511661441822e-06</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.859743459769306e-06</v>
+        <v>1.860274620058505e-06</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.82262060891037e-06</v>
+        <v>1.823138926271183e-06</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.78748694529209e-06</v>
+        <v>1.788052573107557e-06</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.752310819260763e-06</v>
+        <v>1.752963553595357e-06</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.715060581162595e-06</v>
+        <v>1.715819860762221e-06</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.673704581343922e-06</v>
+        <v>1.674569487635921e-06</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.626564857577852e-06</v>
+        <v>1.627516584917739e-06</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.574000017509611e-06</v>
+        <v>1.575016097124902e-06</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.517096120469723e-06</v>
+        <v>1.518155501175332e-06</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.456940133676383e-06</v>
+        <v>1.458023188215549e-06</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.394619024347935e-06</v>
+        <v>1.395707549392225e-06</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.331219759702735e-06</v>
+        <v>1.33229697585204e-06</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.267829306958963e-06</v>
+        <v>1.268879858741504e-06</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.205534633334973e-06</v>
+        <v>1.206544589207295e-06</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.145417348989803e-06</v>
+        <v>1.146374209284601e-06</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.088039648972334e-06</v>
+        <v>1.088933116511326e-06</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.03301771526645e-06</v>
+        <v>1.033841098881055e-06</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>9.798673152946326e-07</v>
+        <v>9.806176788026795e-07</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>9.281042164795084e-07</v>
+        <v>9.287823786852379e-07</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>8.772441862437016e-07</v>
+        <v>8.778547209377646e-07</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>8.268029920096993e-07</v>
+        <v>8.273542279691568e-07</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>7.762964012001255e-07</v>
+        <v>7.768004221884493e-07</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>7.252401812376049e-07</v>
+        <v>7.257128260046771e-07</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>6.731761978081763e-07</v>
+        <v>6.736368287694648e-07</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>6.202651236205879e-07</v>
+        <v>6.207311420879864e-07</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>5.67296921096516e-07</v>
+        <v>5.677781895963154e-07</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>5.150897476445758e-07</v>
+        <v>5.155883400124208e-07</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>4.644617606735707e-07</v>
+        <v>4.649719620544599e-07</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>4.162311175921197e-07</v>
+        <v>4.167394244404053e-07</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>3.712159758089804e-07</v>
+        <v>3.717010958883686e-07</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>3.302344927328983e-07</v>
+        <v>3.306673451164492e-07</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>2.941048257725104e-07</v>
+        <v>2.944485408426378e-07</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>2.635879496853983e-07</v>
+        <v>2.638024296497148e-07</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.39197855338389e-07</v>
+        <v>2.392594720563035e-07</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.213818659335389e-07</v>
+        <v>2.212887778950084e-07</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.105928750938054e-07</v>
+        <v>2.103650798749262e-07</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.076433978467501e-07</v>
+        <v>2.07326112639568e-07</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.135848744592258e-07</v>
+        <v>2.132487137142169e-07</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.273855372900644e-07</v>
+        <v>2.270936962768883e-07</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.471727633988466e-07</v>
+        <v>2.469679001199078e-07</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.710718966527457e-07</v>
+        <v>2.70976100123594e-07</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.971957527140722e-07</v>
+        <v>2.972108813314053e-07</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>3.233676992700325e-07</v>
+        <v>3.234831983668953e-07</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>3.471209323746935e-07</v>
+        <v>3.473216713205972e-07</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>3.659759751452555e-07</v>
+        <v>3.662425896231717e-07</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>3.774533506989921e-07</v>
+        <v>3.777622427053525e-07</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>3.790754949722448e-07</v>
+        <v>3.793988308336237e-07</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>3.703528980373576e-07</v>
+        <v>3.706565470850058e-07</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>3.565436171100723e-07</v>
+        <v>3.567811922815748e-07</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>3.43938308198483e-07</v>
+        <v>3.440500953817095e-07</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>3.384920924277981e-07</v>
+        <v>3.38407448864681e-07</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>3.398647755266174e-07</v>
+        <v>3.395471287357587e-07</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>3.421221584272084e-07</v>
+        <v>3.416089921574098e-07</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>3.391353829571642e-07</v>
+        <v>3.385396286109592e-07</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>3.261613357464936e-07</v>
+        <v>3.256507768120774e-07</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>3.043230148269558e-07</v>
+        <v>3.040331020686401e-07</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>2.762953833877355e-07</v>
+        <v>2.763061688355356e-07</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>2.44753414497071e-07</v>
+        <v>2.450895512998791e-07</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.123720812232132e-07</v>
+        <v>2.130028236487986e-07</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.81826176830527e-07</v>
+        <v>1.826653848948213e-07</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.551458006316005e-07</v>
+        <v>1.560685385901777e-07</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.322678137803169e-07</v>
+        <v>1.33164243290637e-07</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.127049821366312e-07</v>
+        <v>1.134912811476963e-07</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>9.597007156056135e-08</v>
+        <v>9.658843431291559e-08</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>8.157584791211535e-08</v>
+        <v>8.19944849378451e-08</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>6.903507705126342e-08</v>
+        <v>6.924821517399675e-08</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>5.786053605743329e-08</v>
+        <v>5.788841839211658e-08</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>4.808802003488732e-08</v>
+        <v>4.797686914055183e-08</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>4.092241820225045e-08</v>
+        <v>4.073433340889914e-08</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.611130329201281e-08</v>
+        <v>3.58990538506969e-08</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.310975352540844e-08</v>
+        <v>3.291289891929732e-08</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.137284712366438e-08</v>
+        <v>3.121773706804569e-08</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.035566230801686e-08</v>
+        <v>3.025543675029638e-08</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.95883257411893e-08</v>
+        <v>2.954466168393786e-08</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.89567841637978e-08</v>
+        <v>2.896817771165573e-08</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.845233019823823e-08</v>
+        <v>2.851654858237464e-08</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.80662726385255e-08</v>
+        <v>2.818035459304812e-08</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.778992027867596e-08</v>
+        <v>2.795017604063101e-08</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.761458191270558e-08</v>
+        <v>2.781659322207774e-08</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.753156633462987e-08</v>
+        <v>2.777018643434245e-08</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.753218233846489e-08</v>
+        <v>2.780153597437966e-08</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.760773871822637e-08</v>
+        <v>2.790122213914361e-08</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.774954426793029e-08</v>
+        <v>2.805982522558885e-08</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.794890778159227e-08</v>
+        <v>2.826792553066948e-08</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.819714100493865e-08</v>
+        <v>2.851610908704879e-08</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>2.848612288879802e-08</v>
+        <v>2.879606410984647e-08</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>2.880897027822545e-08</v>
+        <v>2.910188426733063e-08</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>2.915896331553311e-08</v>
+        <v>2.942798054397588e-08</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>2.952938214303229e-08</v>
+        <v>2.976876392425604e-08</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.991350690303425e-08</v>
+        <v>3.011864539264486e-08</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>3.030461773785126e-08</v>
+        <v>3.047203593361707e-08</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>3.069599478979456e-08</v>
+        <v>3.082334653164643e-08</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>3.108091820117538e-08</v>
+        <v>3.11669881712067e-08</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>3.145266811430603e-08</v>
+        <v>3.14973718367726e-08</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.180452467149741e-08</v>
+        <v>3.180890851281762e-08</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.212976801506176e-08</v>
+        <v>3.20960091838164e-08</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>3.242167828731033e-08</v>
+        <v>3.235308483424273e-08</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.267353563055451e-08</v>
+        <v>3.25745464485705e-08</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.287862018710631e-08</v>
+        <v>3.275480501127419e-08</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.303021209927708e-08</v>
+        <v>3.288827150682767e-08</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.312159150937837e-08</v>
+        <v>3.296935691970497e-08</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>3.314603855972192e-08</v>
+        <v>3.299247223438033e-08</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>3.30968333926192e-08</v>
+        <v>3.295202843532769e-08</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>3.297435516958154e-08</v>
+        <v>3.284900624432454e-08</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>3.281172670189904e-08</v>
+        <v>3.27146887631458e-08</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>3.265150503186106e-08</v>
+        <v>3.258908993617725e-08</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>3.25362480777532e-08</v>
+        <v>3.25122245184893e-08</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>3.250851375786154e-08</v>
+        <v>3.252410726515269e-08</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>3.261085999047199e-08</v>
+        <v>3.266475293123808e-08</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>3.288584469387012e-08</v>
+        <v>3.297417627181575e-08</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>3.337602578634233e-08</v>
+        <v>3.349239204195687e-08</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>3.412396118617355e-08</v>
+        <v>3.425941499673106e-08</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>3.517220881165103e-08</v>
+        <v>3.531525989121033e-08</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>3.656332658106013e-08</v>
+        <v>3.669994148046476e-08</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>3.833987241268499e-08</v>
+        <v>3.845347451956321e-08</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>4.054440422481469e-08</v>
+        <v>4.061587376357948e-08</v>
       </c>
     </row>
   </sheetData>
